--- a/DPWork_2.O_AutomationTesting/testdata/newUserSignUp_testData.xlsx
+++ b/DPWork_2.O_AutomationTesting/testdata/newUserSignUp_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DP_WORK_2.O\DPWork_2.O\DPWork_2.O_AutomationTesting\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBF635B-B1F7-440E-BF2E-6F606A232D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA36011-A141-4F1B-BC96-589CE1C1DCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>PhilName</t>
   </si>
   <si>
-    <t>New User Sign Up</t>
-  </si>
-  <si>
     <t>Dutta</t>
   </si>
   <si>
@@ -79,34 +76,37 @@
     <t>700043</t>
   </si>
   <si>
-    <t>005626244200</t>
-  </si>
-  <si>
     <t>Test@1234</t>
   </si>
   <si>
-    <t>ANKUCH ROY</t>
-  </si>
-  <si>
-    <t>9875748393</t>
-  </si>
-  <si>
     <t>Boishaki</t>
   </si>
   <si>
     <t>Shibani</t>
   </si>
   <si>
-    <t>dyutida16@dutta.com</t>
-  </si>
-  <si>
-    <t>9875748394</t>
-  </si>
-  <si>
-    <t>dyutida17@dutta.com</t>
-  </si>
-  <si>
-    <t>MANIK DAS</t>
+    <t>9875748399</t>
+  </si>
+  <si>
+    <t>dyutida21@dutta.com</t>
+  </si>
+  <si>
+    <t>9875748100</t>
+  </si>
+  <si>
+    <t>SIBANI PAL</t>
+  </si>
+  <si>
+    <t>000930137200</t>
+  </si>
+  <si>
+    <t>SIKHARANI PAL</t>
+  </si>
+  <si>
+    <t>New User Sign Up OTP Resent</t>
+  </si>
+  <si>
+    <t>New User Sign Up OTP Sent</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -557,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -565,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -636,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
